--- a/Code/Results/Cases/Case_3_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9615894167351939</v>
+        <v>0.631305391513564</v>
       </c>
       <c r="C2">
-        <v>0.1478111993812874</v>
+        <v>0.210090626371759</v>
       </c>
       <c r="D2">
-        <v>0.06222484180354115</v>
+        <v>0.07955070600113245</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.353725323313469</v>
+        <v>1.671718243172151</v>
       </c>
       <c r="G2">
-        <v>1.352297658537367</v>
+        <v>1.597995458338389</v>
       </c>
       <c r="H2">
-        <v>0.8784697921471576</v>
+        <v>1.417263889856883</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7593638687569779</v>
+        <v>0.2753409718590092</v>
       </c>
       <c r="L2">
-        <v>0.2204562316058514</v>
+        <v>0.2856578238929046</v>
       </c>
       <c r="M2">
-        <v>0.2342010345737719</v>
+        <v>0.2063240920548068</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8359275893925258</v>
+        <v>0.6009864536892167</v>
       </c>
       <c r="C3">
-        <v>0.1466697573012894</v>
+        <v>0.209270069445143</v>
       </c>
       <c r="D3">
-        <v>0.06255766906280158</v>
+        <v>0.07924658692274278</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.27333720081181</v>
+        <v>1.656374741911378</v>
       </c>
       <c r="G3">
-        <v>1.276624503675606</v>
+        <v>1.58291719738564</v>
       </c>
       <c r="H3">
-        <v>0.8501724554558621</v>
+        <v>1.414682555761416</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6580766535988403</v>
+        <v>0.2479803965992744</v>
       </c>
       <c r="L3">
-        <v>0.2013523198282385</v>
+        <v>0.2821316541934635</v>
       </c>
       <c r="M3">
-        <v>0.2061232471884722</v>
+        <v>0.2000368177901315</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7595600644542344</v>
+        <v>0.5827447636306431</v>
       </c>
       <c r="C4">
-        <v>0.1459588496930202</v>
+        <v>0.2087463781081382</v>
       </c>
       <c r="D4">
-        <v>0.06274691031889645</v>
+        <v>0.07904912578464618</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.225839254769937</v>
+        <v>1.647677632131206</v>
       </c>
       <c r="G4">
-        <v>1.232070420105671</v>
+        <v>1.574351356434406</v>
       </c>
       <c r="H4">
-        <v>0.8338751272977731</v>
+        <v>1.413585509933895</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5962574520865189</v>
+        <v>0.2312963188681465</v>
       </c>
       <c r="L4">
-        <v>0.1899026225707985</v>
+        <v>0.28010393415029</v>
       </c>
       <c r="M4">
-        <v>0.189126327685269</v>
+        <v>0.1962942113172019</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7286147109658998</v>
+        <v>0.5754054988939572</v>
       </c>
       <c r="C5">
-        <v>0.1456664059724382</v>
+        <v>0.2085279639586695</v>
       </c>
       <c r="D5">
-        <v>0.06282041359120072</v>
+        <v>0.07896596391388755</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.206921266284027</v>
+        <v>1.644315427856313</v>
       </c>
       <c r="G5">
-        <v>1.214363266773091</v>
+        <v>1.571034606642399</v>
       </c>
       <c r="H5">
-        <v>0.8274905520729305</v>
+        <v>1.413261169919224</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5711415525846917</v>
+        <v>0.2245265738137618</v>
       </c>
       <c r="L5">
-        <v>0.1853022038992407</v>
+        <v>0.2793121947027473</v>
       </c>
       <c r="M5">
-        <v>0.1822551907495971</v>
+        <v>0.1947987466454961</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7234861717572869</v>
+        <v>0.5741925272065203</v>
       </c>
       <c r="C6">
-        <v>0.1456176743495377</v>
+        <v>0.2084913938271313</v>
       </c>
       <c r="D6">
-        <v>0.06283240584885874</v>
+        <v>0.078951992291179</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.203805545302941</v>
+        <v>1.643768122671872</v>
       </c>
       <c r="G6">
-        <v>1.211449249107517</v>
+        <v>1.570494360832285</v>
       </c>
       <c r="H6">
-        <v>0.826445504402102</v>
+        <v>1.413214726036102</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5669751714901849</v>
+        <v>0.2234042273504855</v>
       </c>
       <c r="L6">
-        <v>0.1845421180225628</v>
+        <v>0.2791828160484968</v>
       </c>
       <c r="M6">
-        <v>0.1811174161300784</v>
+        <v>0.1945522199783305</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7591420458502682</v>
+        <v>0.5826454012814963</v>
       </c>
       <c r="C7">
-        <v>0.1459549170702417</v>
+        <v>0.2087434527798742</v>
       </c>
       <c r="D7">
-        <v>0.06274791599940066</v>
+        <v>0.07904801514133553</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.225582385954667</v>
+        <v>1.647631551721048</v>
       </c>
       <c r="G7">
-        <v>1.231829837133589</v>
+        <v>1.574305921712948</v>
       </c>
       <c r="H7">
-        <v>0.8337880013814924</v>
+        <v>1.413580638871906</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5959184451992172</v>
+        <v>0.2312049015118873</v>
       </c>
       <c r="L7">
-        <v>0.1898403212399984</v>
+        <v>0.2800931164476026</v>
       </c>
       <c r="M7">
-        <v>0.1890334449145925</v>
+        <v>0.1962739227197403</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9180827845731585</v>
+        <v>0.6207738885909748</v>
       </c>
       <c r="C8">
-        <v>0.1474195823037086</v>
+        <v>0.2098118152638335</v>
       </c>
       <c r="D8">
-        <v>0.06234285209920465</v>
+        <v>0.07944807493150918</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.3256026330385</v>
+        <v>1.666277508556405</v>
       </c>
       <c r="G8">
-        <v>1.325789865798043</v>
+        <v>1.592652678298904</v>
       </c>
       <c r="H8">
-        <v>0.8684804498349195</v>
+        <v>1.416272594573527</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7243520109581141</v>
+        <v>0.2658831554872165</v>
       </c>
       <c r="L8">
-        <v>0.2138079263283288</v>
+        <v>0.2844135083424817</v>
       </c>
       <c r="M8">
-        <v>0.2244657496433256</v>
+        <v>0.2041318195078574</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.237176492982201</v>
+        <v>0.6985066554974253</v>
       </c>
       <c r="C9">
-        <v>0.1502228242247341</v>
+        <v>0.2117497513186954</v>
       </c>
       <c r="D9">
-        <v>0.06141988714244384</v>
+        <v>0.08014731183374302</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.53796538488821</v>
+        <v>1.708593051412393</v>
       </c>
       <c r="G9">
-        <v>1.526709372205744</v>
+        <v>1.634134928564094</v>
       </c>
       <c r="H9">
-        <v>0.9457493641007773</v>
+        <v>1.425423141294203</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9800168383679306</v>
+        <v>0.3348011745949293</v>
       </c>
       <c r="L9">
-        <v>0.2632760851543736</v>
+        <v>0.2939750740664095</v>
       </c>
       <c r="M9">
-        <v>0.2961617399137282</v>
+        <v>0.2204745537251185</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.477874251903074</v>
+        <v>0.7574213457708368</v>
       </c>
       <c r="C10">
-        <v>0.1522573925738619</v>
+        <v>0.2130785428536832</v>
       </c>
       <c r="D10">
-        <v>0.06065085510552137</v>
+        <v>0.0806088977738213</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.706075690327239</v>
+        <v>1.743203611064132</v>
       </c>
       <c r="G10">
-        <v>1.686761586640415</v>
+        <v>1.667988324927848</v>
       </c>
       <c r="H10">
-        <v>1.009187448476979</v>
+        <v>1.434509046435807</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.171479970546244</v>
+        <v>0.3859957132436307</v>
       </c>
       <c r="L10">
-        <v>0.3014936278811717</v>
+        <v>0.3016643543711837</v>
       </c>
       <c r="M10">
-        <v>0.3506182780744354</v>
+        <v>0.2330504597391396</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.589158084446808</v>
+        <v>0.7846150875613773</v>
       </c>
       <c r="C11">
-        <v>0.1531819385156012</v>
+        <v>0.2136625847194118</v>
       </c>
       <c r="D11">
-        <v>0.06027838333218938</v>
+        <v>0.08080753351047676</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.785712932727989</v>
+        <v>1.759717123631447</v>
       </c>
       <c r="G11">
-        <v>1.762829054795759</v>
+        <v>1.684127041033321</v>
       </c>
       <c r="H11">
-        <v>1.039748119994158</v>
+        <v>1.439156315705333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.259688194841118</v>
+        <v>0.4094082126240437</v>
       </c>
       <c r="L11">
-        <v>0.3193762183964282</v>
+        <v>0.3053068287745759</v>
       </c>
       <c r="M11">
-        <v>0.3758841065691172</v>
+        <v>0.2388951803740937</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.631594144634647</v>
+        <v>0.7949690433895853</v>
       </c>
       <c r="C12">
-        <v>0.1535323150427672</v>
+        <v>0.2138808200552837</v>
       </c>
       <c r="D12">
-        <v>0.06013383302634168</v>
+        <v>0.08088111794493358</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.816373021213849</v>
+        <v>1.766081127915058</v>
       </c>
       <c r="G12">
-        <v>1.792153085513036</v>
+        <v>1.690344850133471</v>
       </c>
       <c r="H12">
-        <v>1.051588557777421</v>
+        <v>1.440990053792291</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.293279020573181</v>
+        <v>0.4182916931493992</v>
       </c>
       <c r="L12">
-        <v>0.3262275181470784</v>
+        <v>0.3067069186187439</v>
       </c>
       <c r="M12">
-        <v>0.3855320871330719</v>
+        <v>0.2411262104547944</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.62244100531322</v>
+        <v>0.7927366349472322</v>
       </c>
       <c r="C13">
-        <v>0.1534568360025865</v>
+        <v>0.2138339492720007</v>
       </c>
       <c r="D13">
-        <v>0.06016512442716859</v>
+        <v>0.08086534297637371</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.809746627052803</v>
+        <v>1.764705600688202</v>
       </c>
       <c r="G13">
-        <v>1.785813701984353</v>
+        <v>1.689000996917827</v>
       </c>
       <c r="H13">
-        <v>1.049026210313087</v>
+        <v>1.440591837969123</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.286035778412128</v>
+        <v>0.4163776926729668</v>
       </c>
       <c r="L13">
-        <v>0.3247482944463087</v>
+        <v>0.3064044611680856</v>
       </c>
       <c r="M13">
-        <v>0.3834504888350239</v>
+        <v>0.2406449290993038</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.592643176903209</v>
+        <v>0.7854657873561166</v>
       </c>
       <c r="C14">
-        <v>0.1532107562214584</v>
+        <v>0.2136805977120346</v>
       </c>
       <c r="D14">
-        <v>0.06026656277258624</v>
+        <v>0.08081362012708126</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.788224979702051</v>
+        <v>1.760238474935619</v>
       </c>
       <c r="G14">
-        <v>1.765230856142836</v>
+        <v>1.684636449747899</v>
       </c>
       <c r="H14">
-        <v>1.040716734378492</v>
+        <v>1.439305697017716</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.262447785874969</v>
+        <v>0.4101387084361932</v>
       </c>
       <c r="L14">
-        <v>0.3199382360375722</v>
+        <v>0.3054215990236315</v>
       </c>
       <c r="M14">
-        <v>0.3766761842457029</v>
+        <v>0.2390783728973886</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.574430787249014</v>
+        <v>0.781019504428059</v>
       </c>
       <c r="C15">
-        <v>0.1530600736826955</v>
+        <v>0.2135862843404297</v>
       </c>
       <c r="D15">
-        <v>0.06032823286001943</v>
+        <v>0.08078172540856343</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.775109387731078</v>
+        <v>1.757516650646053</v>
       </c>
       <c r="G15">
-        <v>1.75269241829443</v>
+        <v>1.681976904892082</v>
       </c>
       <c r="H15">
-        <v>1.035662529588308</v>
+        <v>1.438527524840538</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.248024871712488</v>
+        <v>0.4063194483341306</v>
       </c>
       <c r="L15">
-        <v>0.3170025470077604</v>
+        <v>0.3048222708519575</v>
       </c>
       <c r="M15">
-        <v>0.3725374862121313</v>
+        <v>0.2381211234851648</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.470640768058445</v>
+        <v>0.7556520598341478</v>
       </c>
       <c r="C16">
-        <v>0.1521969856063556</v>
+        <v>0.2130399640057981</v>
       </c>
       <c r="D16">
-        <v>0.0606747205880076</v>
+        <v>0.08059568791563265</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.700938895324242</v>
+        <v>1.742139898161255</v>
       </c>
       <c r="G16">
-        <v>1.681860176197659</v>
+        <v>1.666948503309555</v>
       </c>
       <c r="H16">
-        <v>1.007226410797387</v>
+        <v>1.434215680268125</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.165740089824851</v>
+        <v>0.3844681319629331</v>
       </c>
       <c r="L16">
-        <v>0.3003356366261869</v>
+        <v>0.3014292171593524</v>
       </c>
       <c r="M16">
-        <v>0.3489778100119025</v>
+        <v>0.2326709817582966</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.407453216331504</v>
+        <v>0.7401904650193387</v>
       </c>
       <c r="C17">
-        <v>0.1516675341577631</v>
+        <v>0.2126995877424953</v>
       </c>
       <c r="D17">
-        <v>0.06088130937868641</v>
+        <v>0.08047865233906393</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.656280925090925</v>
+        <v>1.732903798581816</v>
       </c>
       <c r="G17">
-        <v>1.63927599608752</v>
+        <v>1.657918399619916</v>
       </c>
       <c r="H17">
-        <v>0.9902335090947645</v>
+        <v>1.431702161773813</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.115565050109893</v>
+        <v>0.3710946812644238</v>
       </c>
       <c r="L17">
-        <v>0.2902438944020673</v>
+        <v>0.2993847003494778</v>
       </c>
       <c r="M17">
-        <v>0.3346575047893694</v>
+        <v>0.2293591870579945</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.371275352030921</v>
+        <v>0.7313343854002596</v>
       </c>
       <c r="C18">
-        <v>0.1513628869854848</v>
+        <v>0.2125018885870773</v>
       </c>
       <c r="D18">
-        <v>0.06099801884253253</v>
+        <v>0.08041026921266337</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.630889426321545</v>
+        <v>1.727663813013464</v>
       </c>
       <c r="G18">
-        <v>1.615086183777862</v>
+        <v>1.652794034074645</v>
       </c>
       <c r="H18">
-        <v>0.9806183858044903</v>
+        <v>1.430304836817612</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.086808381407991</v>
+        <v>0.3634142910571256</v>
       </c>
       <c r="L18">
-        <v>0.2844856725651113</v>
+        <v>0.2982223587110724</v>
       </c>
       <c r="M18">
-        <v>0.3264666624120807</v>
+        <v>0.227465993402916</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.359053545728472</v>
+        <v>0.7283422353069966</v>
       </c>
       <c r="C19">
-        <v>0.1512597061691423</v>
+        <v>0.2124346203594811</v>
       </c>
       <c r="D19">
-        <v>0.06103717878147386</v>
+        <v>0.08038693265519825</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.622341490722079</v>
+        <v>1.725902070848235</v>
       </c>
       <c r="G19">
-        <v>1.606946590676159</v>
+        <v>1.651070944095778</v>
       </c>
       <c r="H19">
-        <v>0.9773894673322445</v>
+        <v>1.429840036711227</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.077088674679743</v>
+        <v>0.3608158504804351</v>
       </c>
       <c r="L19">
-        <v>0.2825437523217147</v>
+        <v>0.2978311482201548</v>
       </c>
       <c r="M19">
-        <v>0.3237009792331662</v>
+        <v>0.2268269953056432</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.414162199801837</v>
+        <v>0.7418325485584205</v>
       </c>
       <c r="C20">
-        <v>0.1517239048258361</v>
+        <v>0.2127360204084319</v>
       </c>
       <c r="D20">
-        <v>0.0608595382968744</v>
+        <v>0.08049122147006571</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.661004016966572</v>
+        <v>1.733879505809043</v>
       </c>
       <c r="G20">
-        <v>1.64377739518568</v>
+        <v>1.658872473873146</v>
       </c>
       <c r="H20">
-        <v>0.9920258430584568</v>
+        <v>1.431964722507956</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.120895442164681</v>
+        <v>0.3725171016255615</v>
       </c>
       <c r="L20">
-        <v>0.2913133315284711</v>
+        <v>0.2996009342306252</v>
       </c>
       <c r="M20">
-        <v>0.3361771180052529</v>
+        <v>0.2297105265553654</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.601387187692666</v>
+        <v>0.7875998862765812</v>
       </c>
       <c r="C21">
-        <v>0.153283024913641</v>
+        <v>0.2137257201888012</v>
       </c>
       <c r="D21">
-        <v>0.06023686499524672</v>
+        <v>0.08082885677268337</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.794532346077716</v>
+        <v>1.761547572896731</v>
       </c>
       <c r="G21">
-        <v>1.771262030022456</v>
+        <v>1.685915532944904</v>
       </c>
       <c r="H21">
-        <v>1.043149968199486</v>
+        <v>1.439681461681687</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.269370800464316</v>
+        <v>0.4119707706989288</v>
       </c>
       <c r="L21">
-        <v>0.3213488401815852</v>
+        <v>0.3057097261485637</v>
       </c>
       <c r="M21">
-        <v>0.3786637015110941</v>
+        <v>0.2395380268067981</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.725490842222655</v>
+        <v>0.8178393887812945</v>
       </c>
       <c r="C22">
-        <v>0.1543038097645244</v>
+        <v>0.2143554802694965</v>
       </c>
       <c r="D22">
-        <v>0.05980936708090923</v>
+        <v>0.0810399916289235</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.884759425839093</v>
+        <v>1.780275525149534</v>
       </c>
       <c r="G22">
-        <v>1.85763200564972</v>
+        <v>1.704210174945786</v>
       </c>
       <c r="H22">
-        <v>1.078135522819707</v>
+        <v>1.445155647805194</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.367520677151333</v>
+        <v>0.4378589879165986</v>
       </c>
       <c r="L22">
-        <v>0.3414467164030981</v>
+        <v>0.3098231900933399</v>
       </c>
       <c r="M22">
-        <v>0.4069045268379767</v>
+        <v>0.2460643685142401</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.659081599664233</v>
+        <v>0.8016700789367235</v>
       </c>
       <c r="C23">
-        <v>0.1537586818427954</v>
+        <v>0.214020923852388</v>
       </c>
       <c r="D23">
-        <v>0.06003949614447635</v>
+        <v>0.08092817808124408</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.836315707790092</v>
+        <v>1.770220984371846</v>
       </c>
       <c r="G23">
-        <v>1.811237703933926</v>
+        <v>1.694389139849363</v>
       </c>
       <c r="H23">
-        <v>1.059311005318079</v>
+        <v>1.442194548974157</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.315024303536347</v>
+        <v>0.4240325816005566</v>
       </c>
       <c r="L23">
-        <v>0.3306744400598944</v>
+        <v>0.3076166928699422</v>
       </c>
       <c r="M23">
-        <v>0.3917852157605495</v>
+        <v>0.2425716837716365</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.411128605544377</v>
+        <v>0.7410900597897694</v>
       </c>
       <c r="C24">
-        <v>0.1516984204827523</v>
+        <v>0.2127195554698247</v>
       </c>
       <c r="D24">
-        <v>0.06086938740459402</v>
+        <v>0.08048554238388306</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.658867829366272</v>
+        <v>1.733438170616594</v>
       </c>
       <c r="G24">
-        <v>1.641741405641056</v>
+        <v>1.658440927709279</v>
       </c>
       <c r="H24">
-        <v>0.9912150499062591</v>
+        <v>1.43184587011271</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.11848529486727</v>
+        <v>0.3718739998783747</v>
       </c>
       <c r="L24">
-        <v>0.2908297036273666</v>
+        <v>0.2995031341546763</v>
       </c>
       <c r="M24">
-        <v>0.3354899704661776</v>
+        <v>0.2295516523207723</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.149888262077667</v>
+        <v>0.6771608851508404</v>
       </c>
       <c r="C25">
-        <v>0.1494702113691453</v>
+        <v>0.2112422292287306</v>
       </c>
       <c r="D25">
-        <v>0.06168460579354829</v>
+        <v>0.07996729604591302</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.478562288389128</v>
+        <v>1.696528307918086</v>
       </c>
       <c r="G25">
-        <v>1.470346956839023</v>
+        <v>1.622321453241852</v>
       </c>
       <c r="H25">
-        <v>0.9237550306303604</v>
+        <v>1.422532909225225</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9103167353449635</v>
+        <v>0.3160588428297615</v>
       </c>
       <c r="L25">
-        <v>0.2495930728017157</v>
+        <v>0.2912717675868919</v>
       </c>
       <c r="M25">
-        <v>0.2764865382909321</v>
+        <v>0.2159534987597311</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.631305391513564</v>
+        <v>0.9615894167352508</v>
       </c>
       <c r="C2">
-        <v>0.210090626371759</v>
+        <v>0.1478111993814508</v>
       </c>
       <c r="D2">
-        <v>0.07955070600113245</v>
+        <v>0.06222484180342747</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.671718243172151</v>
+        <v>1.353725323313469</v>
       </c>
       <c r="G2">
-        <v>1.597995458338389</v>
+        <v>1.352297658537367</v>
       </c>
       <c r="H2">
-        <v>1.417263889856883</v>
+        <v>0.8784697921470439</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2753409718590092</v>
+        <v>0.7593638687570348</v>
       </c>
       <c r="L2">
-        <v>0.2856578238929046</v>
+        <v>0.2204562316059082</v>
       </c>
       <c r="M2">
-        <v>0.2063240920548068</v>
+        <v>0.2342010345737719</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6009864536892167</v>
+        <v>0.8359275893926963</v>
       </c>
       <c r="C3">
-        <v>0.209270069445143</v>
+        <v>0.1466697573012539</v>
       </c>
       <c r="D3">
-        <v>0.07924658692274278</v>
+        <v>0.0625576690627927</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.656374741911378</v>
+        <v>1.273337200811838</v>
       </c>
       <c r="G3">
-        <v>1.58291719738564</v>
+        <v>1.276624503675706</v>
       </c>
       <c r="H3">
-        <v>1.414682555761416</v>
+        <v>0.8501724554558621</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2479803965992744</v>
+        <v>0.6580766535988829</v>
       </c>
       <c r="L3">
-        <v>0.2821316541934635</v>
+        <v>0.2013523198281248</v>
       </c>
       <c r="M3">
-        <v>0.2000368177901315</v>
+        <v>0.2061232471884828</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5827447636306431</v>
+        <v>0.7595600644541776</v>
       </c>
       <c r="C4">
-        <v>0.2087463781081382</v>
+        <v>0.1459588496929243</v>
       </c>
       <c r="D4">
-        <v>0.07904912578464618</v>
+        <v>0.06274691031885737</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.647677632131206</v>
+        <v>1.225839254769937</v>
       </c>
       <c r="G4">
-        <v>1.574351356434406</v>
+        <v>1.232070420105643</v>
       </c>
       <c r="H4">
-        <v>1.413585509933895</v>
+        <v>0.8338751272977731</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2312963188681465</v>
+        <v>0.5962574520865473</v>
       </c>
       <c r="L4">
-        <v>0.28010393415029</v>
+        <v>0.1899026225706208</v>
       </c>
       <c r="M4">
-        <v>0.1962942113172019</v>
+        <v>0.1891263276852655</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5754054988939572</v>
+        <v>0.728614710965843</v>
       </c>
       <c r="C5">
-        <v>0.2085279639586695</v>
+        <v>0.145666405972424</v>
       </c>
       <c r="D5">
-        <v>0.07896596391388755</v>
+        <v>0.06282041359127355</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.644315427856313</v>
+        <v>1.206921266284013</v>
       </c>
       <c r="G5">
-        <v>1.571034606642399</v>
+        <v>1.214363266773063</v>
       </c>
       <c r="H5">
-        <v>1.413261169919224</v>
+        <v>0.8274905520729305</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2245265738137618</v>
+        <v>0.5711415525847769</v>
       </c>
       <c r="L5">
-        <v>0.2793121947027473</v>
+        <v>0.185302203899198</v>
       </c>
       <c r="M5">
-        <v>0.1947987466454961</v>
+        <v>0.1822551907496006</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5741925272065203</v>
+        <v>0.7234861717573438</v>
       </c>
       <c r="C6">
-        <v>0.2084913938271313</v>
+        <v>0.1456176743498077</v>
       </c>
       <c r="D6">
-        <v>0.078951992291179</v>
+        <v>0.06283240584892269</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.643768122671872</v>
+        <v>1.203805545302941</v>
       </c>
       <c r="G6">
-        <v>1.570494360832285</v>
+        <v>1.211449249107503</v>
       </c>
       <c r="H6">
-        <v>1.413214726036102</v>
+        <v>0.826445504402102</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2234042273504855</v>
+        <v>0.5669751714901565</v>
       </c>
       <c r="L6">
-        <v>0.2791828160484968</v>
+        <v>0.1845421180225628</v>
       </c>
       <c r="M6">
-        <v>0.1945522199783305</v>
+        <v>0.1811174161300855</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5826454012814963</v>
+        <v>0.7591420458504103</v>
       </c>
       <c r="C7">
-        <v>0.2087434527798742</v>
+        <v>0.1459549170702559</v>
       </c>
       <c r="D7">
-        <v>0.07904801514133553</v>
+        <v>0.06274791599929408</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.647631551721048</v>
+        <v>1.225582385954681</v>
       </c>
       <c r="G7">
-        <v>1.574305921712948</v>
+        <v>1.231829837133574</v>
       </c>
       <c r="H7">
-        <v>1.413580638871906</v>
+        <v>0.8337880013814924</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2312049015118873</v>
+        <v>0.5959184451992314</v>
       </c>
       <c r="L7">
-        <v>0.2800931164476026</v>
+        <v>0.1898403212400197</v>
       </c>
       <c r="M7">
-        <v>0.1962739227197403</v>
+        <v>0.189033444914589</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6207738885909748</v>
+        <v>0.9180827845730164</v>
       </c>
       <c r="C8">
-        <v>0.2098118152638335</v>
+        <v>0.1474195823036979</v>
       </c>
       <c r="D8">
-        <v>0.07944807493150918</v>
+        <v>0.0623428520992384</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.666277508556405</v>
+        <v>1.325602633038528</v>
       </c>
       <c r="G8">
-        <v>1.592652678298904</v>
+        <v>1.325789865798129</v>
       </c>
       <c r="H8">
-        <v>1.416272594573527</v>
+        <v>0.8684804498349479</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2658831554872165</v>
+        <v>0.7243520109580857</v>
       </c>
       <c r="L8">
-        <v>0.2844135083424817</v>
+        <v>0.2138079263282719</v>
       </c>
       <c r="M8">
-        <v>0.2041318195078574</v>
+        <v>0.224465749643322</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6985066554974253</v>
+        <v>1.237176492982087</v>
       </c>
       <c r="C9">
-        <v>0.2117497513186954</v>
+        <v>0.1502228242247767</v>
       </c>
       <c r="D9">
-        <v>0.08014731183374302</v>
+        <v>0.0614198871425522</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.708593051412393</v>
+        <v>1.53796538488821</v>
       </c>
       <c r="G9">
-        <v>1.634134928564094</v>
+        <v>1.526709372205801</v>
       </c>
       <c r="H9">
-        <v>1.425423141294203</v>
+        <v>0.9457493641008057</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3348011745949293</v>
+        <v>0.9800168383679591</v>
       </c>
       <c r="L9">
-        <v>0.2939750740664095</v>
+        <v>0.2632760851543026</v>
       </c>
       <c r="M9">
-        <v>0.2204745537251185</v>
+        <v>0.2961617399137353</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7574213457708368</v>
+        <v>1.477874251903131</v>
       </c>
       <c r="C10">
-        <v>0.2130785428536832</v>
+        <v>0.1522573925738726</v>
       </c>
       <c r="D10">
-        <v>0.0806088977738213</v>
+        <v>0.06065085510551071</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.743203611064132</v>
+        <v>1.706075690327239</v>
       </c>
       <c r="G10">
-        <v>1.667988324927848</v>
+        <v>1.686761586640529</v>
       </c>
       <c r="H10">
-        <v>1.434509046435807</v>
+        <v>1.009187448476979</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3859957132436307</v>
+        <v>1.171479970546244</v>
       </c>
       <c r="L10">
-        <v>0.3016643543711837</v>
+        <v>0.3014936278811433</v>
       </c>
       <c r="M10">
-        <v>0.2330504597391396</v>
+        <v>0.3506182780743998</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7846150875613773</v>
+        <v>1.589158084446922</v>
       </c>
       <c r="C11">
-        <v>0.2136625847194118</v>
+        <v>0.1531819385157647</v>
       </c>
       <c r="D11">
-        <v>0.08080753351047676</v>
+        <v>0.06027838333229596</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.759717123631447</v>
+        <v>1.785712932727975</v>
       </c>
       <c r="G11">
-        <v>1.684127041033321</v>
+        <v>1.762829054795702</v>
       </c>
       <c r="H11">
-        <v>1.439156315705333</v>
+        <v>1.039748119994158</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4094082126240437</v>
+        <v>1.259688194841203</v>
       </c>
       <c r="L11">
-        <v>0.3053068287745759</v>
+        <v>0.3193762183964566</v>
       </c>
       <c r="M11">
-        <v>0.2388951803740937</v>
+        <v>0.3758841065691172</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7949690433895853</v>
+        <v>1.631594144634619</v>
       </c>
       <c r="C12">
-        <v>0.2138808200552837</v>
+        <v>0.1535323150430692</v>
       </c>
       <c r="D12">
-        <v>0.08088111794493358</v>
+        <v>0.06013383302625286</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.766081127915058</v>
+        <v>1.816373021213849</v>
       </c>
       <c r="G12">
-        <v>1.690344850133471</v>
+        <v>1.792153085513092</v>
       </c>
       <c r="H12">
-        <v>1.440990053792291</v>
+        <v>1.051588557777308</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4182916931493992</v>
+        <v>1.293279020573152</v>
       </c>
       <c r="L12">
-        <v>0.3067069186187439</v>
+        <v>0.3262275181469789</v>
       </c>
       <c r="M12">
-        <v>0.2411262104547944</v>
+        <v>0.3855320871330861</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7927366349472322</v>
+        <v>1.622441005313277</v>
       </c>
       <c r="C13">
-        <v>0.2138339492720007</v>
+        <v>0.1534568360025901</v>
       </c>
       <c r="D13">
-        <v>0.08086534297637371</v>
+        <v>0.06016512442737465</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.764705600688202</v>
+        <v>1.809746627052789</v>
       </c>
       <c r="G13">
-        <v>1.689000996917827</v>
+        <v>1.785813701984353</v>
       </c>
       <c r="H13">
-        <v>1.440591837969123</v>
+        <v>1.049026210313087</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4163776926729668</v>
+        <v>1.286035778412071</v>
       </c>
       <c r="L13">
-        <v>0.3064044611680856</v>
+        <v>0.3247482944461808</v>
       </c>
       <c r="M13">
-        <v>0.2406449290993038</v>
+        <v>0.3834504888350025</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7854657873561166</v>
+        <v>1.592643176903238</v>
       </c>
       <c r="C14">
-        <v>0.2136805977120346</v>
+        <v>0.1532107562211493</v>
       </c>
       <c r="D14">
-        <v>0.08081362012708126</v>
+        <v>0.06026656277270703</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.760238474935619</v>
+        <v>1.788224979702093</v>
       </c>
       <c r="G14">
-        <v>1.684636449747899</v>
+        <v>1.765230856142892</v>
       </c>
       <c r="H14">
-        <v>1.439305697017716</v>
+        <v>1.04071673437852</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4101387084361932</v>
+        <v>1.262447785875025</v>
       </c>
       <c r="L14">
-        <v>0.3054215990236315</v>
+        <v>0.3199382360376148</v>
       </c>
       <c r="M14">
-        <v>0.2390783728973886</v>
+        <v>0.3766761842457029</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.781019504428059</v>
+        <v>1.5744307872489</v>
       </c>
       <c r="C15">
-        <v>0.2135862843404297</v>
+        <v>0.1530600736829726</v>
       </c>
       <c r="D15">
-        <v>0.08078172540856343</v>
+        <v>0.06032823286007627</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.757516650646053</v>
+        <v>1.775109387731078</v>
       </c>
       <c r="G15">
-        <v>1.681976904892082</v>
+        <v>1.752692418294515</v>
       </c>
       <c r="H15">
-        <v>1.438527524840538</v>
+        <v>1.035662529588393</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4063194483341306</v>
+        <v>1.248024871712573</v>
       </c>
       <c r="L15">
-        <v>0.3048222708519575</v>
+        <v>0.317002547007661</v>
       </c>
       <c r="M15">
-        <v>0.2381211234851648</v>
+        <v>0.3725374862121242</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7556520598341478</v>
+        <v>1.470640768058445</v>
       </c>
       <c r="C16">
-        <v>0.2130399640057981</v>
+        <v>0.1521969856062384</v>
       </c>
       <c r="D16">
-        <v>0.08059568791563265</v>
+        <v>0.06067472058791878</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.742139898161255</v>
+        <v>1.700938895324242</v>
       </c>
       <c r="G16">
-        <v>1.666948503309555</v>
+        <v>1.681860176197716</v>
       </c>
       <c r="H16">
-        <v>1.434215680268125</v>
+        <v>1.007226410797358</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3844681319629331</v>
+        <v>1.165740089824794</v>
       </c>
       <c r="L16">
-        <v>0.3014292171593524</v>
+        <v>0.3003356366261443</v>
       </c>
       <c r="M16">
-        <v>0.2326709817582966</v>
+        <v>0.3489778100119167</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7401904650193387</v>
+        <v>1.407453216331305</v>
       </c>
       <c r="C17">
-        <v>0.2126995877424953</v>
+        <v>0.1516675341577631</v>
       </c>
       <c r="D17">
-        <v>0.08047865233906393</v>
+        <v>0.06088130937880365</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.732903798581816</v>
+        <v>1.656280925090925</v>
       </c>
       <c r="G17">
-        <v>1.657918399619916</v>
+        <v>1.639275996087463</v>
       </c>
       <c r="H17">
-        <v>1.431702161773813</v>
+        <v>0.9902335090947645</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3710946812644238</v>
+        <v>1.115565050109865</v>
       </c>
       <c r="L17">
-        <v>0.2993847003494778</v>
+        <v>0.2902438944020957</v>
       </c>
       <c r="M17">
-        <v>0.2293591870579945</v>
+        <v>0.3346575047893694</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7313343854002596</v>
+        <v>1.371275352030978</v>
       </c>
       <c r="C18">
-        <v>0.2125018885870773</v>
+        <v>0.1513628869851971</v>
       </c>
       <c r="D18">
-        <v>0.08041026921266337</v>
+        <v>0.06099801884261424</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.727663813013464</v>
+        <v>1.630889426321531</v>
       </c>
       <c r="G18">
-        <v>1.652794034074645</v>
+        <v>1.615086183777777</v>
       </c>
       <c r="H18">
-        <v>1.430304836817612</v>
+        <v>0.9806183858043482</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3634142910571256</v>
+        <v>1.086808381407963</v>
       </c>
       <c r="L18">
-        <v>0.2982223587110724</v>
+        <v>0.284485672565097</v>
       </c>
       <c r="M18">
-        <v>0.227465993402916</v>
+        <v>0.3264666624120807</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7283422353069966</v>
+        <v>1.359053545728528</v>
       </c>
       <c r="C19">
-        <v>0.2124346203594811</v>
+        <v>0.1512597061693128</v>
       </c>
       <c r="D19">
-        <v>0.08038693265519825</v>
+        <v>0.06103717878139392</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.725902070848235</v>
+        <v>1.622341490722064</v>
       </c>
       <c r="G19">
-        <v>1.651070944095778</v>
+        <v>1.606946590676131</v>
       </c>
       <c r="H19">
-        <v>1.429840036711227</v>
+        <v>0.9773894673323582</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3608158504804351</v>
+        <v>1.077088674679715</v>
       </c>
       <c r="L19">
-        <v>0.2978311482201548</v>
+        <v>0.2825437523217431</v>
       </c>
       <c r="M19">
-        <v>0.2268269953056432</v>
+        <v>0.3237009792331662</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7418325485584205</v>
+        <v>1.414162199801609</v>
       </c>
       <c r="C20">
-        <v>0.2127360204084319</v>
+        <v>0.151723904825829</v>
       </c>
       <c r="D20">
-        <v>0.08049122147006571</v>
+        <v>0.0608595382968673</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.733879505809043</v>
+        <v>1.661004016966601</v>
       </c>
       <c r="G20">
-        <v>1.658872473873146</v>
+        <v>1.643777395185708</v>
       </c>
       <c r="H20">
-        <v>1.431964722507956</v>
+        <v>0.9920258430584568</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3725171016255615</v>
+        <v>1.120895442164738</v>
       </c>
       <c r="L20">
-        <v>0.2996009342306252</v>
+        <v>0.2913133315284711</v>
       </c>
       <c r="M20">
-        <v>0.2297105265553654</v>
+        <v>0.3361771180052386</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7875998862765812</v>
+        <v>1.601387187692609</v>
       </c>
       <c r="C21">
-        <v>0.2137257201888012</v>
+        <v>0.1532830249136374</v>
       </c>
       <c r="D21">
-        <v>0.08082885677268337</v>
+        <v>0.06023686499524317</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.761547572896731</v>
+        <v>1.794532346077716</v>
       </c>
       <c r="G21">
-        <v>1.685915532944904</v>
+        <v>1.771262030022427</v>
       </c>
       <c r="H21">
-        <v>1.439681461681687</v>
+        <v>1.043149968199259</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4119707706989288</v>
+        <v>1.269370800464202</v>
       </c>
       <c r="L21">
-        <v>0.3057097261485637</v>
+        <v>0.3213488401816562</v>
       </c>
       <c r="M21">
-        <v>0.2395380268067981</v>
+        <v>0.378663701511087</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8178393887812945</v>
+        <v>1.725490842222854</v>
       </c>
       <c r="C22">
-        <v>0.2143554802694965</v>
+        <v>0.1543038097643077</v>
       </c>
       <c r="D22">
-        <v>0.0810399916289235</v>
+        <v>0.05980936708092699</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.780275525149534</v>
+        <v>1.884759425839079</v>
       </c>
       <c r="G22">
-        <v>1.704210174945786</v>
+        <v>1.857632005649663</v>
       </c>
       <c r="H22">
-        <v>1.445155647805194</v>
+        <v>1.078135522819679</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4378589879165986</v>
+        <v>1.36752067715139</v>
       </c>
       <c r="L22">
-        <v>0.3098231900933399</v>
+        <v>0.3414467164031834</v>
       </c>
       <c r="M22">
-        <v>0.2460643685142401</v>
+        <v>0.406904526837998</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8016700789367235</v>
+        <v>1.659081599664177</v>
       </c>
       <c r="C23">
-        <v>0.214020923852388</v>
+        <v>0.1537586818426071</v>
       </c>
       <c r="D23">
-        <v>0.08092817808124408</v>
+        <v>0.06003949614454385</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.770220984371846</v>
+        <v>1.836315707790106</v>
       </c>
       <c r="G23">
-        <v>1.694389139849363</v>
+        <v>1.811237703933955</v>
       </c>
       <c r="H23">
-        <v>1.442194548974157</v>
+        <v>1.059311005317966</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4240325816005566</v>
+        <v>1.315024303536433</v>
       </c>
       <c r="L23">
-        <v>0.3076166928699422</v>
+        <v>0.3306744400597097</v>
       </c>
       <c r="M23">
-        <v>0.2425716837716365</v>
+        <v>0.3917852157605353</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7410900597897694</v>
+        <v>1.411128605544405</v>
       </c>
       <c r="C24">
-        <v>0.2127195554698247</v>
+        <v>0.151698420482461</v>
       </c>
       <c r="D24">
-        <v>0.08048554238388306</v>
+        <v>0.06086938740448034</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.733438170616594</v>
+        <v>1.658867829366272</v>
       </c>
       <c r="G24">
-        <v>1.658440927709279</v>
+        <v>1.641741405640914</v>
       </c>
       <c r="H24">
-        <v>1.43184587011271</v>
+        <v>0.9912150499061454</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3718739998783747</v>
+        <v>1.118485294867497</v>
       </c>
       <c r="L24">
-        <v>0.2995031341546763</v>
+        <v>0.2908297036273524</v>
       </c>
       <c r="M24">
-        <v>0.2295516523207723</v>
+        <v>0.3354899704661776</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6771608851508404</v>
+        <v>1.149888262077724</v>
       </c>
       <c r="C25">
-        <v>0.2112422292287306</v>
+        <v>0.1494702113694686</v>
       </c>
       <c r="D25">
-        <v>0.07996729604591302</v>
+        <v>0.06168460579351098</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.696528307918086</v>
+        <v>1.478562288389142</v>
       </c>
       <c r="G25">
-        <v>1.622321453241852</v>
+        <v>1.470346956839023</v>
       </c>
       <c r="H25">
-        <v>1.422532909225225</v>
+        <v>0.9237550306303604</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3160588428297615</v>
+        <v>0.9103167353449635</v>
       </c>
       <c r="L25">
-        <v>0.2912717675868919</v>
+        <v>0.2495930728016162</v>
       </c>
       <c r="M25">
-        <v>0.2159534987597311</v>
+        <v>0.2764865382909463</v>
       </c>
       <c r="N25">
         <v>0</v>
